--- a/output/ValueSet-ConsentVS.xlsx
+++ b/output/ValueSet-ConsentVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-07T13:26:31-05:00</t>
+    <t>2022-03-17T11:48:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-ConsentVS.xlsx
+++ b/output/ValueSet-ConsentVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T11:48:49-04:00</t>
+    <t>2022-03-18T15:39:35-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-ConsentVS.xlsx
+++ b/output/ValueSet-ConsentVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T15:39:35-04:00</t>
+    <t>2022-03-21T10:14:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
